--- a/01-Lesson-Plans/01-Excel/2/Activities/07-Ins_Formatting/Solved/ConditionalFormatting.xlsx
+++ b/01-Lesson-Plans/01-Excel/2/Activities/07-Ins_Formatting/Solved/ConditionalFormatting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/2/Activities/07-Ins_Formatting/Solved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8512a5b4b9cbd9d/UCB/temp/UCB-VIRT-DATA-PT-08-2023-U-LOLC/01-Lesson-Plans/01-Excel/2/Activities/07-Ins_Formatting/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347FAE3D-CDED-4E4B-8CA8-4B87CC84756E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Favorite Colors" sheetId="1" r:id="rId1"/>
@@ -515,16 +515,16 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.33203125" style="3" customWidth="1"/>
-    <col min="3" max="8" width="14.33203125" customWidth="1"/>
+    <col min="1" max="2" width="14.28515625" style="3" customWidth="1"/>
+    <col min="3" max="8" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -547,7 +547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -576,12 +576,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -633,127 +633,127 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>9</v>
       </c>
